--- a/order_list_1.xlsx
+++ b/order_list_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Tabu-Search-for-CVRPTW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A0BAB7-A33E-4ED4-8E87-3ADD904BB9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317A7EA6-72DD-4251-A1FB-4B3DADFDFB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D31D6F35-6EAB-A345-9B39-D8C465EAD513}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="224">
   <si>
     <t>Invoice No.</t>
   </si>
@@ -1573,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1CC031-1DDA-3E40-93C8-E3883026EEFC}">
   <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
@@ -2029,823 +2029,1993 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
+      <c r="A27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>12854184</v>
+      </c>
+      <c r="D27" s="2">
+        <v>848</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
+      <c r="A28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2">
+        <v>12854192</v>
+      </c>
+      <c r="D28" s="2">
+        <v>900</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
+      <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>12854113</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1120</v>
+      </c>
+      <c r="E29" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
+      <c r="A30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>12854117</v>
+      </c>
+      <c r="D30" s="2">
+        <v>900</v>
+      </c>
+      <c r="E30" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
+      <c r="A31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>12854138</v>
+      </c>
+      <c r="D31" s="2">
+        <v>696</v>
+      </c>
+      <c r="E31" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
+      <c r="A32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10212258</v>
+      </c>
+      <c r="D32" s="2">
+        <v>418</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
+      <c r="A33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>12219936</v>
+      </c>
+      <c r="D33" s="2">
+        <v>311</v>
+      </c>
+      <c r="E33" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
+      <c r="A34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>12194109</v>
+      </c>
+      <c r="D34" s="2">
+        <v>202.5</v>
+      </c>
+      <c r="E34" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10364896</v>
+      </c>
+      <c r="D35" s="2">
+        <v>242</v>
+      </c>
+      <c r="E35" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10208595</v>
+      </c>
+      <c r="D36" s="2">
+        <v>119.5</v>
+      </c>
+      <c r="E36" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
+      <c r="A37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10208686</v>
+      </c>
+      <c r="D37" s="2">
+        <v>178</v>
+      </c>
+      <c r="E37" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
+      <c r="A38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2">
+        <v>12656560</v>
+      </c>
+      <c r="D38" s="2">
+        <v>417</v>
+      </c>
+      <c r="E38" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
+      <c r="A39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10208675</v>
+      </c>
+      <c r="D39" s="2">
+        <v>146</v>
+      </c>
+      <c r="E39" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3"/>
+      <c r="A40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2">
+        <v>10208575</v>
+      </c>
+      <c r="D40" s="2">
+        <v>168</v>
+      </c>
+      <c r="E40" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3"/>
+      <c r="A41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10208698</v>
+      </c>
+      <c r="D41" s="2">
+        <v>263</v>
+      </c>
+      <c r="E41" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
+      <c r="A42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10208593</v>
+      </c>
+      <c r="D42" s="2">
+        <v>232</v>
+      </c>
+      <c r="E42" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3"/>
+      <c r="A43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2">
+        <v>12044475</v>
+      </c>
+      <c r="D43" s="2">
+        <v>278</v>
+      </c>
+      <c r="E43" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3"/>
+      <c r="A44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10208659</v>
+      </c>
+      <c r="D44" s="2">
+        <v>516.88</v>
+      </c>
+      <c r="E44" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3"/>
+      <c r="A45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10208776</v>
+      </c>
+      <c r="D45" s="2">
+        <v>503</v>
+      </c>
+      <c r="E45" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="3"/>
+      <c r="A46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2">
+        <v>12715142</v>
+      </c>
+      <c r="D46" s="2">
+        <v>155</v>
+      </c>
+      <c r="E46" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="3"/>
+      <c r="A47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10208595</v>
+      </c>
+      <c r="D47" s="2">
+        <v>164</v>
+      </c>
+      <c r="E47" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="3"/>
+      <c r="A48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2">
+        <v>10208596</v>
+      </c>
+      <c r="D48" s="2">
+        <v>170</v>
+      </c>
+      <c r="E48" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="3"/>
+      <c r="A49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10208681</v>
+      </c>
+      <c r="D49" s="2">
+        <v>338</v>
+      </c>
+      <c r="E49" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="3"/>
+      <c r="A50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2">
+        <v>12475666</v>
+      </c>
+      <c r="D50" s="2">
+        <v>188</v>
+      </c>
+      <c r="E50" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="3"/>
+      <c r="A51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10212373</v>
+      </c>
+      <c r="D51" s="2">
+        <v>209</v>
+      </c>
+      <c r="E51" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="3"/>
+      <c r="A52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2">
+        <v>12475523</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1060</v>
+      </c>
+      <c r="E52" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="3"/>
+      <c r="A53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2">
+        <v>12475516</v>
+      </c>
+      <c r="D53" s="2">
+        <v>604</v>
+      </c>
+      <c r="E53" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="3"/>
+      <c r="A54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2">
+        <v>12475628</v>
+      </c>
+      <c r="D54" s="2">
+        <v>528</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="3"/>
+      <c r="A55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2">
+        <v>12475665</v>
+      </c>
+      <c r="D55" s="2">
+        <v>180</v>
+      </c>
+      <c r="E55" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="3"/>
+      <c r="A56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2">
+        <v>12721000</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1045</v>
+      </c>
+      <c r="E56" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="3"/>
+      <c r="A57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2">
+        <v>12475360</v>
+      </c>
+      <c r="D57" s="2">
+        <v>556</v>
+      </c>
+      <c r="E57" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="3"/>
+      <c r="A58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2">
+        <v>12475623</v>
+      </c>
+      <c r="D58" s="2">
+        <v>272</v>
+      </c>
+      <c r="E58" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="3"/>
+      <c r="A59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2">
+        <v>12854149</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="3"/>
+      <c r="A60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2">
+        <v>12740556</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1672</v>
+      </c>
+      <c r="E60" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="3"/>
+      <c r="A61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2">
+        <v>12854148</v>
+      </c>
+      <c r="D61" s="2">
+        <v>672</v>
+      </c>
+      <c r="E61" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="3"/>
+      <c r="A62" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2">
+        <v>12854139</v>
+      </c>
+      <c r="D62" s="2">
+        <v>7200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="3"/>
+      <c r="A63" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2">
+        <v>12742843</v>
+      </c>
+      <c r="D63" s="2">
+        <v>836</v>
+      </c>
+      <c r="E63" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="3"/>
+      <c r="A64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2">
+        <v>12546176</v>
+      </c>
+      <c r="D64" s="2">
+        <v>836</v>
+      </c>
+      <c r="E64" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="3"/>
+      <c r="A65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="2">
+        <v>10208670</v>
+      </c>
+      <c r="D65" s="2">
+        <v>88</v>
+      </c>
+      <c r="E65" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="3"/>
+      <c r="A66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10366979</v>
+      </c>
+      <c r="D66" s="2">
+        <v>304</v>
+      </c>
+      <c r="E66" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="3"/>
+      <c r="A67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2">
+        <v>10212202</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1081</v>
+      </c>
+      <c r="E67" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="3"/>
+      <c r="A68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="2">
+        <v>12779571</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1254</v>
+      </c>
+      <c r="E68" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="3"/>
+      <c r="A69" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="2">
+        <v>12742843</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2070</v>
+      </c>
+      <c r="E69" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="3"/>
+      <c r="A70" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2">
+        <v>12194109</v>
+      </c>
+      <c r="D70" s="2">
+        <v>12</v>
+      </c>
+      <c r="E70" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="3"/>
+      <c r="A71" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="2">
+        <v>10208747</v>
+      </c>
+      <c r="D71" s="2">
+        <v>72</v>
+      </c>
+      <c r="E71" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="3"/>
+      <c r="A72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="2">
+        <v>10208776</v>
+      </c>
+      <c r="D72" s="2">
+        <v>108</v>
+      </c>
+      <c r="E72" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="3"/>
+      <c r="A73" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2">
+        <v>10208681</v>
+      </c>
+      <c r="D73" s="2">
+        <v>48</v>
+      </c>
+      <c r="E73" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="3"/>
+      <c r="A74" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="2">
+        <v>10208675</v>
+      </c>
+      <c r="D74" s="2">
+        <v>48</v>
+      </c>
+      <c r="E74" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="3"/>
+      <c r="A75" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="2">
+        <v>10208639</v>
+      </c>
+      <c r="D75" s="2">
+        <v>48</v>
+      </c>
+      <c r="E75" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="3"/>
+      <c r="A76" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="2">
+        <v>10208659</v>
+      </c>
+      <c r="D76" s="2">
+        <v>96</v>
+      </c>
+      <c r="E76" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="3"/>
+      <c r="A77" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="2">
+        <v>12715142</v>
+      </c>
+      <c r="D77" s="2">
+        <v>24</v>
+      </c>
+      <c r="E77" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="3"/>
+      <c r="A78" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="2">
+        <v>10208760</v>
+      </c>
+      <c r="D78" s="2">
+        <v>72</v>
+      </c>
+      <c r="E78" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="3"/>
+      <c r="A79" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="2">
+        <v>10310590</v>
+      </c>
+      <c r="D79" s="2">
+        <v>24</v>
+      </c>
+      <c r="E79" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="3"/>
+      <c r="A80" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="2">
+        <v>10364896</v>
+      </c>
+      <c r="D80" s="2">
+        <v>24</v>
+      </c>
+      <c r="E80" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="3"/>
+      <c r="A81" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="2">
+        <v>12044475</v>
+      </c>
+      <c r="D81" s="2">
+        <v>12</v>
+      </c>
+      <c r="E81" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="3"/>
+      <c r="A82" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="2">
+        <v>12750741</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2800</v>
+      </c>
+      <c r="E82" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="3"/>
+      <c r="A83" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="2">
+        <v>12750741</v>
+      </c>
+      <c r="D83" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="3"/>
+      <c r="A84" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="2">
+        <v>10208659</v>
+      </c>
+      <c r="D84" s="2">
+        <v>48</v>
+      </c>
+      <c r="E84" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="3"/>
+      <c r="A85" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="2">
+        <v>12715142</v>
+      </c>
+      <c r="D85" s="2">
+        <v>12</v>
+      </c>
+      <c r="E85" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="3"/>
+      <c r="A86" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="2">
+        <v>12854154</v>
+      </c>
+      <c r="D86" s="2">
+        <v>720</v>
+      </c>
+      <c r="E86" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="3"/>
+      <c r="A87" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="2">
+        <v>12854126</v>
+      </c>
+      <c r="D87" s="2">
+        <v>600</v>
+      </c>
+      <c r="E87" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="3"/>
+      <c r="A88" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="2">
+        <v>12854147</v>
+      </c>
+      <c r="D88" s="2">
+        <v>400</v>
+      </c>
+      <c r="E88" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="3"/>
+      <c r="A89" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="2">
+        <v>12995436</v>
+      </c>
+      <c r="D89" s="2">
+        <v>960</v>
+      </c>
+      <c r="E89" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="3"/>
+      <c r="A90" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="2">
+        <v>12021664</v>
+      </c>
+      <c r="D90" s="2">
+        <v>768</v>
+      </c>
+      <c r="E90" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="3"/>
+      <c r="A91" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="2">
+        <v>12171479</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2717</v>
+      </c>
+      <c r="E91" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="3"/>
+      <c r="A92" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="2">
+        <v>12690815</v>
+      </c>
+      <c r="D92" s="2">
+        <v>320</v>
+      </c>
+      <c r="E92" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="3"/>
+      <c r="A93" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="2">
+        <v>10208762</v>
+      </c>
+      <c r="D93" s="2">
+        <v>212</v>
+      </c>
+      <c r="E93" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="3"/>
+      <c r="A94" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="2">
+        <v>10310757</v>
+      </c>
+      <c r="D94" s="2">
+        <v>310</v>
+      </c>
+      <c r="E94" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="3"/>
+      <c r="A95" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="2">
+        <v>10208602</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1032</v>
+      </c>
+      <c r="E95" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="3"/>
+      <c r="A96" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="2">
+        <v>11539696</v>
+      </c>
+      <c r="D96" s="2">
+        <v>324</v>
+      </c>
+      <c r="E96" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="3"/>
+      <c r="A97" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="2">
+        <v>12725145</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1045</v>
+      </c>
+      <c r="E97" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="3"/>
+      <c r="A98" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="2">
+        <v>12854137</v>
+      </c>
+      <c r="D98" s="2">
+        <v>800</v>
+      </c>
+      <c r="E98" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="3"/>
+      <c r="A99" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="2">
+        <v>12502170</v>
+      </c>
+      <c r="D99" s="2">
+        <v>510</v>
+      </c>
+      <c r="E99" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="3"/>
+      <c r="A100" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="2">
+        <v>10279711</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1150</v>
+      </c>
+      <c r="E100" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="3"/>
+      <c r="A101" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="2">
+        <v>10208614</v>
+      </c>
+      <c r="D101" s="2">
+        <v>220</v>
+      </c>
+      <c r="E101" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="3"/>
+      <c r="A102" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="2">
+        <v>10208731</v>
+      </c>
+      <c r="D102" s="2">
+        <v>180</v>
+      </c>
+      <c r="E102" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="3"/>
+      <c r="A103" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="2">
+        <v>10208764</v>
+      </c>
+      <c r="D103" s="2">
+        <v>726</v>
+      </c>
+      <c r="E103" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="3"/>
+      <c r="A104" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="2">
+        <v>10208661</v>
+      </c>
+      <c r="D104" s="2">
+        <v>180</v>
+      </c>
+      <c r="E104" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="3"/>
+      <c r="A105" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="2">
+        <v>10208712</v>
+      </c>
+      <c r="D105" s="2">
+        <v>284</v>
+      </c>
+      <c r="E105" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="3"/>
+      <c r="A106" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="2">
+        <v>10208602</v>
+      </c>
+      <c r="D106" s="2">
+        <v>24</v>
+      </c>
+      <c r="E106" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="3"/>
+      <c r="A107" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="2">
+        <v>11539696</v>
+      </c>
+      <c r="D107" s="2">
+        <v>24</v>
+      </c>
+      <c r="E107" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="3"/>
+      <c r="A108" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="2">
+        <v>13005196</v>
+      </c>
+      <c r="D108" s="2">
+        <v>2485</v>
+      </c>
+      <c r="E108" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="3"/>
+      <c r="A109" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="2">
+        <v>10219625</v>
+      </c>
+      <c r="D109" s="2">
+        <v>200</v>
+      </c>
+      <c r="E109" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="3"/>
+      <c r="A110" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="2">
+        <v>10210421</v>
+      </c>
+      <c r="D110" s="2">
+        <v>836</v>
+      </c>
+      <c r="E110" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="3"/>
+      <c r="A111" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="2">
+        <v>10219625</v>
+      </c>
+      <c r="D111" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E111" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="3"/>
+      <c r="A112" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="2">
+        <v>10210421</v>
+      </c>
+      <c r="D112" s="2">
+        <v>836</v>
+      </c>
+      <c r="E112" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="3"/>
+      <c r="A113" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="2">
+        <v>10210421</v>
+      </c>
+      <c r="D113" s="2">
+        <v>627</v>
+      </c>
+      <c r="E113" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="3"/>
+      <c r="A114" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="2">
+        <v>12489344</v>
+      </c>
+      <c r="D114" s="2">
+        <v>2090</v>
+      </c>
+      <c r="E114" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="3"/>
+      <c r="A115" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="2">
+        <v>13067405</v>
+      </c>
+      <c r="D115" s="2">
+        <v>836</v>
+      </c>
+      <c r="E115" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="3"/>
+      <c r="A116" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="2">
+        <v>11539696</v>
+      </c>
+      <c r="D116" s="2">
+        <v>36</v>
+      </c>
+      <c r="E116" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="3"/>
+      <c r="A117" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="2">
+        <v>12854172</v>
+      </c>
+      <c r="D117" s="2">
+        <v>648</v>
+      </c>
+      <c r="E117" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="3"/>
+      <c r="A118" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="2">
+        <v>12854130</v>
+      </c>
+      <c r="D118" s="2">
+        <v>760</v>
+      </c>
+      <c r="E118" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="3"/>
+      <c r="A119" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="2">
+        <v>12860572</v>
+      </c>
+      <c r="D119" s="2">
+        <v>600</v>
+      </c>
+      <c r="E119" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="3"/>
+      <c r="A120" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="2">
+        <v>12854149</v>
+      </c>
+      <c r="D120" s="2">
+        <v>800</v>
+      </c>
+      <c r="E120" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="3"/>
+      <c r="A121" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="2">
+        <v>12860572</v>
+      </c>
+      <c r="D121" s="2">
+        <v>664</v>
+      </c>
+      <c r="E121" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="3"/>
+      <c r="A122" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="2">
+        <v>10208719</v>
+      </c>
+      <c r="D122" s="2">
+        <v>360</v>
+      </c>
+      <c r="E122" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="3"/>
+      <c r="A123" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="2">
+        <v>10208698</v>
+      </c>
+      <c r="D123" s="2">
+        <v>280</v>
+      </c>
+      <c r="E123" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="3"/>
+      <c r="A124" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="2">
+        <v>10208707</v>
+      </c>
+      <c r="D124" s="2">
+        <v>152</v>
+      </c>
+      <c r="E124" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="3"/>
+      <c r="A125" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="2">
+        <v>10208696</v>
+      </c>
+      <c r="D125" s="2">
+        <v>148</v>
+      </c>
+      <c r="E125" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="3"/>
+      <c r="A126" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="2">
+        <v>10364922</v>
+      </c>
+      <c r="D126" s="2">
+        <v>182</v>
+      </c>
+      <c r="E126" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="3"/>
+      <c r="A127" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="2">
+        <v>10208629</v>
+      </c>
+      <c r="D127" s="2">
+        <v>40</v>
+      </c>
+      <c r="E127" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="3"/>
+      <c r="A128" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="2">
+        <v>10208651</v>
+      </c>
+      <c r="D128" s="2">
+        <v>163.6</v>
+      </c>
+      <c r="E128" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="3"/>
+      <c r="A129" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="2">
+        <v>10208119</v>
+      </c>
+      <c r="D129" s="2">
+        <v>376</v>
+      </c>
+      <c r="E129" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="3"/>
+      <c r="A130" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="2">
+        <v>10208499</v>
+      </c>
+      <c r="D130" s="2">
+        <v>195</v>
+      </c>
+      <c r="E130" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="3"/>
+      <c r="A131" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="2">
+        <v>10393503</v>
+      </c>
+      <c r="D131" s="2">
+        <v>180</v>
+      </c>
+      <c r="E131" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="3"/>
+      <c r="A132" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="2">
+        <v>12420540</v>
+      </c>
+      <c r="D132" s="2">
+        <v>195</v>
+      </c>
+      <c r="E132" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="3"/>
+      <c r="A133" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="2">
+        <v>10208701</v>
+      </c>
+      <c r="D133" s="2">
+        <v>208</v>
+      </c>
+      <c r="E133" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="3"/>
+      <c r="A134" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="2">
+        <v>10208694</v>
+      </c>
+      <c r="D134" s="2">
+        <v>392</v>
+      </c>
+      <c r="E134" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="3"/>
+      <c r="A135" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="2">
+        <v>10208641</v>
+      </c>
+      <c r="D135" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E135" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="3"/>
+      <c r="A136" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="2">
+        <v>10208698</v>
+      </c>
+      <c r="D136" s="2">
+        <v>24</v>
+      </c>
+      <c r="E136" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="3"/>
+      <c r="A137" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="2">
+        <v>10208694</v>
+      </c>
+      <c r="D137" s="2">
+        <v>24</v>
+      </c>
+      <c r="E137" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="3"/>
+      <c r="A138" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="2">
+        <v>10208701</v>
+      </c>
+      <c r="D138" s="2">
+        <v>120</v>
+      </c>
+      <c r="E138" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="3"/>
+      <c r="A139" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="2">
+        <v>10364922</v>
+      </c>
+      <c r="D139" s="2">
+        <v>48</v>
+      </c>
+      <c r="E139" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="3"/>
+      <c r="A140" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="2">
+        <v>12231175</v>
+      </c>
+      <c r="D140" s="2">
+        <v>84</v>
+      </c>
+      <c r="E140" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="3"/>
+      <c r="A141" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="2">
+        <v>10208651</v>
+      </c>
+      <c r="D141" s="2">
+        <v>24</v>
+      </c>
+      <c r="E141" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="3"/>
+      <c r="A142" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="2">
+        <v>12420540</v>
+      </c>
+      <c r="D142" s="2">
+        <v>36</v>
+      </c>
+      <c r="E142" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="3"/>
+      <c r="A143" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="2">
+        <v>10208499</v>
+      </c>
+      <c r="D143" s="2">
+        <v>24</v>
+      </c>
+      <c r="E143" s="3">
+        <v>45089</v>
+      </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2"/>
@@ -3237,8 +4407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604862E1-F580-C145-9B10-05FE2DED0544}">
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E118" sqref="A2:E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
